--- a/pred_ohlcv/54_21/2019-10-26 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ABT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>76868.00199999996</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>84034.10189999998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>82634.10189999998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>83887.74229999998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>96826.92029999998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>96824.64969999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>118652.8462</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>116521.9743</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>116362.01</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>116612.01</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>116612.01</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>117211.6787</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>106905.1613</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>107049.3285</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>107104.7292</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ABT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>84034.10189999998</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>82634.10189999998</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>83887.74229999998</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>96826.92029999998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>96824.64969999998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>116991.542</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>118652.8462</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>116521.9743</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>116362.01</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>116612.01</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>116612.01</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>117211.6787</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
